--- a/docs/legend.xlsx
+++ b/docs/legend.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="DNA" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t xml:space="preserve">Cell line</t>
   </si>
@@ -129,6 +129,39 @@
   </si>
   <si>
     <t xml:space="preserve">G7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ng/ul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000ng-ul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500ng-ul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ug-ul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          sample ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hg1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitc1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fx1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIIA5</t>
   </si>
   <si>
     <t xml:space="preserve">Sample Label</t>
@@ -249,7 +282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,6 +317,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -367,20 +408,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.4089068825911"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,6 +595,141 @@
       </c>
       <c r="E12" s="5" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>480.8</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>6.239601</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>603.6</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>4.970179</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>676.1</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>4.437213</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>762.3</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>3.935458</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>9.517766</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -579,20 +756,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -601,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -612,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
@@ -623,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>19</v>
@@ -634,7 +811,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>23</v>
@@ -645,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>27</v>
@@ -656,7 +833,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>30</v>
@@ -667,7 +844,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>34</v>
